--- a/DataThief Data (0.2 increment).xlsx
+++ b/DataThief Data (0.2 increment).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -112,6 +112,531 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.067432852143482"/>
+          <c:y val="0.0277777777777778"/>
+          <c:w val="0.877145542291084"/>
+          <c:h val="0.86170593521071"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>-5.99972563998222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.80001237841116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.60030438488959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.39967222497063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.19996272629207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.00025699050601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.80055200729844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.59993038347848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.40023066832041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.20054224183983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.99993566958986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.80024874826628</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.5996489492228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.39997707946921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.20031950870712</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.99974604991112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.80010804619001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.5995609276415</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.39996055284537</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.19944654775083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.99989433797866</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.80036922103248</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.60088474332527</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.39962342778073</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.20026764099693</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.00009079107018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.799989951571875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.599804070703124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.399514334001443</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.200014804724242</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.000362502011642895</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000362502011642895</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.200014804724242</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.399514334001443</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.599804070703124</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.799989951571875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.00009079107018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.20026764099693</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.39962342778073</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.60088474332527</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.80036922103248</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.99989433797866</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.19944654775083</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.39996055284537</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5995609276415</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.80010804619001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.99974604991112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.20031950870712</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.39997707946921</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5996489492228</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.80024874826628</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.99993566958986</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.20054224183983</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.40023066832041</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.59993038347848</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.80055200729844</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.00025699050601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.19996272629207</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.39967222497063</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.60030438488959</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.80001237841116</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.99972563998222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0.0374488961569912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0405560098119379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0448078495502863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0482420278004902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0521668029435813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0569092395748165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0618152085036802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.067538838920687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0735895339329526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0820932134096492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.091087489779233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0999182338511874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.110384300899426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.122485690923956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.137694194603434</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.153883892068683</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.173344235486508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.195257563368765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.222894521668029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.252003270645951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.290106295993459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.334096484055601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.386917416189697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.45363859362224</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.534423548650858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.636794766966476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.7556827473426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.856091578086672</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.933932951757972</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.983483237939493</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.999836467702371</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.999836467702371</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.983483237939493</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.933932951757972</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.856091578086672</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7556827473426</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.636794766966476</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.534423548650858</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45363859362224</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.386917416189697</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.334096484055601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.290106295993459</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.252003270645951</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.222894521668029</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.195257563368765</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.173344235486508</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.153883892068683</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.137694194603434</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.122485690923956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.110384300899426</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0999182338511874</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.091087489779233</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0820932134096492</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0735895339329526</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.067538838920687</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0618152085036802</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0569092395748165</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0521668029435813</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0482420278004902</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0448078495502863</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0405560098119379</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0374488961569912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2141052376"/>
+        <c:axId val="2141055464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2141052376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141055464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2141055464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141052376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -958,6 +1483,7 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
